--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain/Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain/Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain est une liste officielle définie par le gouvernement français, recensant les espèces[1] végétales protégées sur le territoire métropolitain de la France. Elle a été publiée dans l'arrêté du 20 janvier 1982[Légifrance 1] (liste de 450 espèces protégées divisées en deux catégories[2]), lequel a été modifié à trois reprises[3] : par l'arrêté du 31 août 1995[Légifrance 2], par celui du 14 décembre 2006[Légifrance 3] et par celui du 23 mai 2013[Légifrance 4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain est une liste officielle définie par le gouvernement français, recensant les espèces végétales protégées sur le territoire métropolitain de la France. Elle a été publiée dans l'arrêté du 20 janvier 1982[Légifrance 1] (liste de 450 espèces protégées divisées en deux catégories), lequel a été modifié à trois reprises : par l'arrêté du 31 août 1995[Légifrance 2], par celui du 14 décembre 2006[Légifrance 3] et par celui du 23 mai 2013[Légifrance 4].
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Préambule</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Article 1
 « Afin de prévenir la disparition d'espèces végétales menacées et de permettre la conservation des biotopes correspondants, sont interdits, en tout temps et sur tout le territoire métropolitain, la destruction, la coupe, la mutilation, l'arrachage, la cueillette ou l'enlèvement, le colportage, l'utilisation, la mise en vente, la vente ou l'achat de tout ou partie des spécimens sauvages des espèces citées à l'annexe I du présent arrêté. »
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,48 @@
           <t>Annexe I</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Espèces strictement protégées
-Dicotylédones
-Aconitum napellus subsp. corsicum (Gáyer) W.Seitz - Aconit de Corse (inscrit dans la liste officielle sous le nom scientifique synonyme de Aconitum corsicum Gáyer)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces strictement protégées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aconitum napellus subsp. corsicum (Gáyer) W.Seitz - Aconit de Corse (inscrit dans la liste officielle sous le nom scientifique synonyme de Aconitum corsicum Gáyer)
 Adonis pyrenaica DC., Adonis des Pyrénées
 Aldrovanda vesiculosa L., Aldrovanda
 Alyssum corsicum Duby, Corbeille d'or de Corse
@@ -800,9 +851,43 @@
 Viola pinnata L., Violette à feuilles pennées
 Viola rothomagensis Lamarck, Pensée de Rouen
 Vitis vinifera subsp. sylvestris (C.C.Gmel.) Hegi, Vigne sauvage
-Xatardia scabra (Lapeyr) Meissn, Givert des isards
-Monocotylédones
-Agrostis tenerrima Trin, Agrostis élégant
+Xatardia scabra (Lapeyr) Meissn, Givert des isards</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agrostis tenerrima Trin, Agrostis élégant
 Allium chamaemoly, Ail petit Moly
 Allium lineare Schrader, Ail dressé
 Allium moly L., Ail doré
@@ -901,18 +986,86 @@
 Triglochin laxiflorum Guss, Troscart à fleurs lâches
 Tulipa agenensis DC, Tulipe œil de soleil
 Tulipa clusiana DC, Tulipe de l'Écluse
-Tulipa gesneriana L.[4], Tulipe de Gesner
+Tulipa gesneriana L., Tulipe de Gesner
 Tulipa raddii Reboul = Tulipa praecox Ten, Tulipe précoce
 Tulipa sylvestris subsp. sylvestris L., Tulipe sauvage (sous-espèce type)
 Typha minima Funk, Petite massette
 Typha shuttleworthii Koch et Sondes, Massette de Shuttleworth
 Urginea fugax Steinh, Scille éphémère
 Urginea undulata Steinh, Scille à feuilles ondulées
-Veratrum nigrum L., Vérâtre noir
-Gymnospermes
-Pinus mugo Turra, Pin mugho (spontané)
-Ptéridophytes
-Asplenium cuneifolium Viv, Doradille à feuilles en coin
+Veratrum nigrum L., Vérâtre noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gymnospermes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pinus mugo Turra, Pin mugho (spontané)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Asplenium cuneifolium Viv, Doradille à feuilles en coin
 Asplenium fissum Kit et Willd, Doradille du Mercantour
 Asplenium jahandiezii Rouy, Doradille du Verdon, D de Jahandier
 Asplenium lepidum C Presl, Doradille pulvérulente
@@ -953,11 +1106,79 @@
 Stenogramma pozoi Iwatsuki, Polypode d'Afrique
 Trichomanes speciosum Willd, Trichomanes remarquable
 Woodsia ilvensis R.Br, Woodsie d'Elbe
-Woodwardia radicans Sm, Woodwardia
-Charophycées
- Tolypella salina R. Cor., Tolypelle saline
-Bryophytes
-Bruchia vogesiaca Nestl. Ex Schwägr., Bruchie des Vosges
+Woodwardia radicans Sm, Woodwardia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Charophycées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tolypella salina R. Cor., Tolypelle saline</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Annexe I</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bryophytes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bruchia vogesiaca Nestl. Ex Schwägr., Bruchie des Vosges
 Buxbaumia viridis (DC.) Moug. &amp; Nestl., Buxbaumie verte
 Dichelyma capillaceum (Dicks.) Myr., Fontinale chevelue
 Dicranum viride (Sull. &amp; Lesq.) Lindb., Dicrane vert
@@ -974,35 +1195,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Annexe II</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Espèces protégées. Ramassage ou récolte soumis à l'autorisation du ministre.
-Dicotylédones
-Adonis vernalis L., Adonis printanier
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces protégées. Ramassage ou récolte soumis à l'autorisation du ministre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Annexe II</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Adonis vernalis L., Adonis printanier
 Centaurium capitatum Melderis, Petite centaurée à fleurs en tête
 Ceratonia siliqua L., Caroubier
 Delphinium staphysagria L., Staphysaigre
@@ -1025,70 +1283,108 @@
 Senecio rutheniensis Maz Timb, Séneçon du Rouergue
 Valeriana celtica L., Nard celtique
 Viola curtisii E Forst, Pensée de Curtis
-Vitex agnus-castus L., Gattilier
-Monocotylédones
-Alisma graminifolia Ehrh., Fluteau à feuilles de graminées
+Vitex agnus-castus L., Gattilier</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Annexe II</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alisma graminifolia Ehrh., Fluteau à feuilles de graminées
 Asphodelus arrondeaui Lloyd, Bâton blanc d'Arrondeau
 Urginea maritima Baker, Scille maritime</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Listes régionales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces (ou sous-espèces) sont protégées non pas au niveau de l'ensemble de la métropole mais au niveau régional. Les espèces (ou sous-espèces) de chaque liste s'adjoignent à celles de la liste nationale pour chaque région concernée.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_sur_l'ensemble_du_territoire_français_métropolitain</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_sur_l%27ensemble_du_territoire_fran%C3%A7ais_m%C3%A9tropolitain</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Espèces marines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>En sont exclues les espèces marines, qui sont quant à elles protégées par l'arrêté du 19 juillet 1988[Légifrance 31]. Cette protection concerne les monocotylédones suivants :
 Cymodocea nodosa Ascherson : cymodocée, paille de mer
